--- a/data/trans_orig/P33B_R3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R3-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>14126</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8298</v>
+        <v>8703</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21934</v>
+        <v>23504</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.04430215660452606</v>
+        <v>0.04430215660452607</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02602613676274373</v>
+        <v>0.02729417135955287</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06879272129434341</v>
+        <v>0.07371551586985443</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -762,19 +762,19 @@
         <v>29182</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22421</v>
+        <v>22287</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37949</v>
+        <v>36455</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09233095351167385</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07093806673005772</v>
+        <v>0.07051345570026375</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1200684854751013</v>
+        <v>0.1153426032582115</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>73</v>
@@ -783,19 +783,19 @@
         <v>43308</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34510</v>
+        <v>33410</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54010</v>
+        <v>54152</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06821123014804711</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05435426831325751</v>
+        <v>0.05262227558639576</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08506776570637836</v>
+        <v>0.08529128613292093</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>304719</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>296911</v>
+        <v>295341</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>310547</v>
+        <v>310142</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9556978433954739</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9312072787056563</v>
+        <v>0.926284484130146</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9739738632372563</v>
+        <v>0.9727058286404477</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>481</v>
@@ -833,19 +833,19 @@
         <v>286879</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>278112</v>
+        <v>279606</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>293640</v>
+        <v>293774</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9076690464883261</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8799315145248985</v>
+        <v>0.8846573967417882</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9290619332699422</v>
+        <v>0.929486544299736</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>796</v>
@@ -854,19 +854,19 @@
         <v>591598</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>580896</v>
+        <v>580754</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>600396</v>
+        <v>601496</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9317887698519529</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9149322342936217</v>
+        <v>0.9147087138670792</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9456457316867426</v>
+        <v>0.9473777244136041</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>56263</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41434</v>
+        <v>42499</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75574</v>
+        <v>77534</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1060265071416298</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07808271258301304</v>
+        <v>0.08008956561730661</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1424188760569584</v>
+        <v>0.1461114005115106</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>117</v>
@@ -979,19 +979,19 @@
         <v>80869</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67698</v>
+        <v>67407</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97213</v>
+        <v>96974</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1479780251803016</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.123876841703301</v>
+        <v>0.1233449283498015</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1778853673011666</v>
+        <v>0.1774471240078649</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>160</v>
@@ -1000,19 +1000,19 @@
         <v>137132</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114741</v>
+        <v>116938</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>159541</v>
+        <v>160434</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1273108700277011</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1065236137921048</v>
+        <v>0.1085636351667921</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1481154363622302</v>
+        <v>0.148944371987043</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>474384</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>455073</v>
+        <v>453113</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>489213</v>
+        <v>488148</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8939734928583701</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8575811239430424</v>
+        <v>0.8538885994884891</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9219172874169871</v>
+        <v>0.9199104343826933</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>600</v>
@@ -1050,19 +1050,19 @@
         <v>465625</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>449281</v>
+        <v>449520</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>478796</v>
+        <v>479087</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8520219748196984</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8221146326988337</v>
+        <v>0.8225528759921354</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8761231582966992</v>
+        <v>0.8766550716501986</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>939</v>
@@ -1071,19 +1071,19 @@
         <v>940009</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>917600</v>
+        <v>916707</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>962400</v>
+        <v>960203</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.872689129972299</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8518845636377697</v>
+        <v>0.8510556280129571</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8934763862078953</v>
+        <v>0.8914363648332078</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>50829</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39615</v>
+        <v>39125</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63630</v>
+        <v>63329</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1613582919567122</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1257595882392163</v>
+        <v>0.1242049512575085</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2019959893193554</v>
+        <v>0.2010393105439582</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>127</v>
@@ -1196,19 +1196,19 @@
         <v>75969</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63491</v>
+        <v>65162</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88221</v>
+        <v>88841</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2131686993415485</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1781551109275772</v>
+        <v>0.1828425607611627</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2475456430597218</v>
+        <v>0.2492874526659574</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>191</v>
@@ -1217,19 +1217,19 @@
         <v>126798</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>109588</v>
+        <v>110438</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144627</v>
+        <v>145969</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1888599608465842</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1632265852259864</v>
+        <v>0.1644926279448058</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2154146906122436</v>
+        <v>0.2174147343387781</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>264177</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>251376</v>
+        <v>251677</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>275391</v>
+        <v>275881</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8386417080432875</v>
+        <v>0.8386417080432877</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7980040106806443</v>
+        <v>0.7989606894560417</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8742404117607835</v>
+        <v>0.8757950487424915</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>409</v>
@@ -1267,19 +1267,19 @@
         <v>280412</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>268160</v>
+        <v>267540</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>292890</v>
+        <v>291219</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7868313006584515</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.752454356940278</v>
+        <v>0.7507125473340426</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8218448890724227</v>
+        <v>0.8171574392388372</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>704</v>
@@ -1288,19 +1288,19 @@
         <v>544589</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>526760</v>
+        <v>525418</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>561799</v>
+        <v>560949</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8111400391534156</v>
+        <v>0.8111400391534157</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7845853093877565</v>
+        <v>0.782585265661222</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8367734147740136</v>
+        <v>0.8355073720551941</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>64861</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49026</v>
+        <v>50527</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>86539</v>
+        <v>86510</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1738234494626126</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1313858903262063</v>
+        <v>0.1354090001148235</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2319172762721649</v>
+        <v>0.2318412272653162</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>135</v>
@@ -1413,19 +1413,19 @@
         <v>90768</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>75797</v>
+        <v>77054</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>107145</v>
+        <v>108917</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2151103758690979</v>
+        <v>0.215110375869098</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1796313299403786</v>
+        <v>0.1826091013182367</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2539206805463824</v>
+        <v>0.2581207657570514</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>191</v>
@@ -1434,19 +1434,19 @@
         <v>155630</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>133352</v>
+        <v>132391</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>180824</v>
+        <v>183106</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1957343339119856</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1677156904174973</v>
+        <v>0.1665066330204965</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2274215801942384</v>
+        <v>0.2302904479552013</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>308284</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>286606</v>
+        <v>286635</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>324119</v>
+        <v>322618</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8261765505373874</v>
+        <v>0.8261765505373876</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7680827237278354</v>
+        <v>0.7681587727346839</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8686141096737937</v>
+        <v>0.8645909998851766</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>464</v>
@@ -1484,19 +1484,19 @@
         <v>331193</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>314816</v>
+        <v>313044</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>346164</v>
+        <v>344907</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7848896241309022</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7460793194536174</v>
+        <v>0.7418792342429485</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8203686700596213</v>
+        <v>0.8173908986817634</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>700</v>
@@ -1505,19 +1505,19 @@
         <v>639477</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>614283</v>
+        <v>612001</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>661755</v>
+        <v>662716</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8042656660880144</v>
+        <v>0.8042656660880143</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7725784198057616</v>
+        <v>0.7697095520447989</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8322843095825025</v>
+        <v>0.8334933669795034</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>16308</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11053</v>
+        <v>10340</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23765</v>
+        <v>23473</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07929159948888623</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05374177229017264</v>
+        <v>0.05027415475011837</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1155529584604053</v>
+        <v>0.1141337365554571</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>61</v>
@@ -1630,19 +1630,19 @@
         <v>25051</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19122</v>
+        <v>19655</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31708</v>
+        <v>31849</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1104440950590395</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08430236260717647</v>
+        <v>0.08665332483261161</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1397918666682093</v>
+        <v>0.1404113809033737</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>88</v>
@@ -1651,19 +1651,19 @@
         <v>41359</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>32674</v>
+        <v>33855</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50115</v>
+        <v>50921</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09562988371379494</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07554868885744961</v>
+        <v>0.07827861117356201</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.115874995455879</v>
+        <v>0.1177398785997528</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>189357</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>181900</v>
+        <v>182192</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194612</v>
+        <v>195325</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9207084005111137</v>
+        <v>0.9207084005111138</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8844470415395947</v>
+        <v>0.8858662634445428</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9462582277098273</v>
+        <v>0.9497258452498816</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>430</v>
@@ -1701,19 +1701,19 @@
         <v>201772</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>195115</v>
+        <v>194974</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>207701</v>
+        <v>207168</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8895559049409604</v>
+        <v>0.8895559049409605</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8602081333317907</v>
+        <v>0.8595886190966263</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9156976373928235</v>
+        <v>0.9133466751673884</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>682</v>
@@ -1722,19 +1722,19 @@
         <v>391129</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>382373</v>
+        <v>381567</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>399814</v>
+        <v>398633</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.904370116286205</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.884125004544121</v>
+        <v>0.8822601214002471</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9244513111425503</v>
+        <v>0.9217213888264377</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>44494</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34640</v>
+        <v>34733</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55960</v>
+        <v>55996</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1643623229662998</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1279608172095661</v>
+        <v>0.1283030523843265</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2067167402835926</v>
+        <v>0.2068503690168202</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>142</v>
@@ -1847,19 +1847,19 @@
         <v>68142</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57888</v>
+        <v>58093</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>80101</v>
+        <v>77966</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2583594920222991</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.219480949726605</v>
+        <v>0.220257552059738</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3037011661181365</v>
+        <v>0.2956060588804829</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>211</v>
@@ -1868,19 +1868,19 @@
         <v>112636</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>97955</v>
+        <v>98814</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>126241</v>
+        <v>128651</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2107491570768401</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1832796140724013</v>
+        <v>0.1848860261358015</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2362037551677733</v>
+        <v>0.2407139815045899</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>226213</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>214747</v>
+        <v>214711</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236067</v>
+        <v>235974</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8356376770337003</v>
+        <v>0.8356376770337002</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7932832597164073</v>
+        <v>0.7931496309831799</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8720391827904335</v>
+        <v>0.8716969476156736</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>318</v>
@@ -1918,19 +1918,19 @@
         <v>195608</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>183649</v>
+        <v>185784</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>205862</v>
+        <v>205657</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7416405079777012</v>
+        <v>0.7416405079777008</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6962988338818633</v>
+        <v>0.7043939411195169</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.780519050273395</v>
+        <v>0.779742447940262</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>620</v>
@@ -1939,19 +1939,19 @@
         <v>421821</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>408216</v>
+        <v>405806</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>436502</v>
+        <v>435643</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7892508429231598</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7637962448322266</v>
+        <v>0.75928601849541</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8167203859275985</v>
+        <v>0.8151139738641984</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>130608</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>110812</v>
+        <v>107957</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>157846</v>
+        <v>153505</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1817515447286283</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1542048113906241</v>
+        <v>0.1502311520852215</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2196560967722287</v>
+        <v>0.2136147691277541</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>260</v>
@@ -2064,19 +2064,19 @@
         <v>194710</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>172840</v>
+        <v>175883</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>216881</v>
+        <v>217318</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2521964006871492</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2238690263519424</v>
+        <v>0.2278109634670606</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2809135422837957</v>
+        <v>0.2814785956141053</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>378</v>
@@ -2085,19 +2085,19 @@
         <v>325318</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>296605</v>
+        <v>294356</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>359769</v>
+        <v>359587</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2182369638542033</v>
+        <v>0.2182369638542034</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1989751137921594</v>
+        <v>0.1974668458628166</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2413484041484085</v>
+        <v>0.2412261773881501</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>587997</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>560759</v>
+        <v>565100</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>607793</v>
+        <v>610648</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8182484552713718</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7803439032277714</v>
+        <v>0.7863852308722459</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8457951886093759</v>
+        <v>0.8497688479147786</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>700</v>
@@ -2135,19 +2135,19 @@
         <v>577347</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>555176</v>
+        <v>554739</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>599217</v>
+        <v>596174</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7478035993128508</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7190864577162044</v>
+        <v>0.7185214043858947</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7761309736480576</v>
+        <v>0.7721890365329392</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1180</v>
@@ -2156,19 +2156,19 @@
         <v>1165344</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1130893</v>
+        <v>1131075</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1194057</v>
+        <v>1196306</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7817630361457967</v>
+        <v>0.7817630361457968</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.758651595851592</v>
+        <v>0.7587738226118499</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8010248862078407</v>
+        <v>0.8025331541371833</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>167946</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>144923</v>
+        <v>146921</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>191615</v>
+        <v>192654</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2104394055705931</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1815916312105025</v>
+        <v>0.1840951486715901</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2400969876952565</v>
+        <v>0.2413998202428722</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>383</v>
@@ -2281,19 +2281,19 @@
         <v>257409</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>238200</v>
+        <v>234522</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>283001</v>
+        <v>281723</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3099037570381203</v>
+        <v>0.3099037570381205</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2867774431694626</v>
+        <v>0.2823495043022095</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3407151973626394</v>
+        <v>0.33917687962703</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>585</v>
@@ -2302,19 +2302,19 @@
         <v>425355</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>394471</v>
+        <v>392539</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>460288</v>
+        <v>458052</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2611651015568578</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2422027686963933</v>
+        <v>0.2410165942206438</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2826137493906955</v>
+        <v>0.2812409808075496</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>630126</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>606457</v>
+        <v>605418</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>653149</v>
+        <v>651151</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7895605944294068</v>
+        <v>0.789560594429407</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7599030123047433</v>
+        <v>0.7586001797571282</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8184083687894975</v>
+        <v>0.81590485132841</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>678</v>
@@ -2352,19 +2352,19 @@
         <v>573200</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>547608</v>
+        <v>548886</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>592409</v>
+        <v>596087</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6900962429618797</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6592848026373604</v>
+        <v>0.6608231203729699</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7132225568305373</v>
+        <v>0.7176504956977899</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1238</v>
@@ -2373,19 +2373,19 @@
         <v>1203326</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1168393</v>
+        <v>1170629</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1234210</v>
+        <v>1236142</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.738834898443142</v>
+        <v>0.7388348984431421</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7173862506093042</v>
+        <v>0.7187590191924504</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7577972313036068</v>
+        <v>0.7589834057793566</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>545433</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>498049</v>
+        <v>496019</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>593388</v>
+        <v>589085</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1544833784981426</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1410628028153882</v>
+        <v>0.1404877661425593</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.168065623630614</v>
+        <v>0.1668470330535761</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1282</v>
@@ -2498,19 +2498,19 @@
         <v>822101</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>782892</v>
+        <v>778655</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>867918</v>
+        <v>866555</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.2201583296902654</v>
+        <v>0.2201583296902653</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2096581977364999</v>
+        <v>0.2085233523276036</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2324279539116074</v>
+        <v>0.232063047000463</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1877</v>
@@ -2519,19 +2519,19 @@
         <v>1367535</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1310397</v>
+        <v>1302608</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1433550</v>
+        <v>1427863</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.1882404373811206</v>
+        <v>0.1882404373811207</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1803753939454212</v>
+        <v>0.1793032977574212</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1973274072086536</v>
+        <v>0.1965445562060301</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>2985259</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2937304</v>
+        <v>2941607</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3032643</v>
+        <v>3034673</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8455166215018576</v>
+        <v>0.8455166215018575</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8319343763693861</v>
+        <v>0.833152966946424</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8589371971846119</v>
+        <v>0.8595122338574407</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4080</v>
@@ -2569,19 +2569,19 @@
         <v>2912036</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2866219</v>
+        <v>2867582</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2951245</v>
+        <v>2955482</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.7798416703097346</v>
+        <v>0.7798416703097345</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7675720460883927</v>
+        <v>0.767936952999537</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7903418022634998</v>
+        <v>0.7914766476723964</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6859</v>
@@ -2590,19 +2590,19 @@
         <v>5897295</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5831280</v>
+        <v>5836967</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5954433</v>
+        <v>5962222</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8117595626188793</v>
+        <v>0.8117595626188792</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8026725927913462</v>
+        <v>0.8034554437939702</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8196246060545789</v>
+        <v>0.8206967022425791</v>
       </c>
     </row>
     <row r="30">
